--- a/时间实验数据.xlsx
+++ b/时间实验数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyPaper\che-pp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F4C910-EDF6-44A0-B64B-14AA621EBEF4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FFB2845-A172-445E-8BC9-08922D521BE1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="991" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>项目名</t>
   </si>
@@ -63,14 +63,35 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>runelite</t>
-  </si>
-  <si>
     <t>平均时间</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>open-keychain</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>runelite</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsonschema2pojo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>typescript-genenrator</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>trackr-backend</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>incubator-zipkin-brave</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hutool</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -159,7 +180,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15167260143437483"/>
+          <c:y val="6.1366779179749753E-2"/>
+          <c:w val="0.7733097057135373"/>
+          <c:h val="0.77318407925231802"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -199,59 +230,119 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.12100930058901872"/>
+                  <c:y val="0.39506687162112702"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                      <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$7:$B$12</c:f>
+              <c:f>Sheet1!$B$9:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1958</c:v>
+                  <c:v>2951</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44378</c:v>
+                  <c:v>60409</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26478</c:v>
+                  <c:v>33355</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6413</c:v>
+                  <c:v>14295</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>101885</c:v>
+                  <c:v>87380</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>61878</c:v>
+                  <c:v>29340</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18653</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7468</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43551</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>103212</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$7:$E$12</c:f>
+              <c:f>Sheet1!$E$9:$E$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>153.5</c:v>
+                  <c:v>133.80000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1927.3333333333333</c:v>
+                  <c:v>753.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1934.8</c:v>
+                  <c:v>587.20000000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>223.2</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3548.6</c:v>
+                  <c:v>872</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1639.3333333333333</c:v>
+                  <c:v>466.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>248.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>150.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>591.79999999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1504.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -295,18 +386,26 @@
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
+                    <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                    <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:rPr lang="zh-CN"/>
                   <a:t>项目表达式数量</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.40810806292525542"/>
+              <c:y val="0.90516043217675035"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -327,8 +426,8 @@
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
+                  <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                  <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
@@ -365,8 +464,8 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
+                <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
@@ -399,6 +498,39 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                    <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN"/>
+                  <a:t>分析消耗时间</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN"/>
+                  <a:t>单位：毫秒</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -419,8 +551,8 @@
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
+                  <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                  <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
@@ -457,8 +589,8 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
+                <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
@@ -508,7 +640,10 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+          <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="zh-CN"/>
     </a:p>
@@ -577,15 +712,51 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="7.2150481189851262E-2"/>
+                  <c:y val="0.84014508603091276"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                      <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$7:$C$12</c:f>
+              <c:f>Sheet1!$C$9:$C$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>246</c:v>
                 </c:pt>
@@ -599,37 +770,61 @@
                   <c:v>542</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7931</c:v>
+                  <c:v>4270</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4270</c:v>
+                  <c:v>1894</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>914</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>801</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3331</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9423</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$7:$E$12</c:f>
+              <c:f>Sheet1!$E$9:$E$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>153.5</c:v>
+                  <c:v>133.80000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1927.3333333333333</c:v>
+                  <c:v>753.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1934.8</c:v>
+                  <c:v>587.20000000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>223.2</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3548.6</c:v>
+                  <c:v>872</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1639.3333333333333</c:v>
+                  <c:v>466.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>248.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>150.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>591.79999999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1504.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -995,12 +1190,62 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="7.6544775123448552E-2"/>
+                  <c:y val="0.80347448425624324"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                      <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$7:$D$12</c:f>
+              <c:f>Sheet1!$D$9:$D$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>41</c:v>
                 </c:pt>
@@ -1014,37 +1259,61 @@
                   <c:v>143</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1742</c:v>
+                  <c:v>579</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>579</c:v>
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>459</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1114</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$7:$E$12</c:f>
+              <c:f>Sheet1!$E$9:$E$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>153.5</c:v>
+                  <c:v>133.80000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1927.3333333333333</c:v>
+                  <c:v>753.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1934.8</c:v>
+                  <c:v>587.20000000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>223.2</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3548.6</c:v>
+                  <c:v>872</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1639.3333333333333</c:v>
+                  <c:v>466.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>248.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>150.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>591.79999999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1504.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3023,16 +3292,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3059,16 +3328,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3095,16 +3364,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3429,15 +3698,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="18.140625"/>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
     <col min="2" max="4" width="11.5703125"/>
     <col min="6" max="1026" width="11.5703125"/>
   </cols>
@@ -3456,7 +3725,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -3464,7 +3733,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>402612</v>
+        <v>524245</v>
       </c>
       <c r="C2">
         <v>46394</v>
@@ -3473,8 +3742,8 @@
         <v>8433</v>
       </c>
       <c r="E2">
-        <f>AVERAGE(F2:O2)</f>
-        <v>13641.25</v>
+        <f>AVERAGE(F2:L2)</f>
+        <v>12528.4</v>
       </c>
       <c r="F2">
         <v>12436</v>
@@ -3487,6 +3756,9 @@
       </c>
       <c r="I2">
         <v>13693</v>
+      </c>
+      <c r="J2">
+        <v>8077</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3494,29 +3766,32 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>582257</v>
+        <v>910488</v>
       </c>
       <c r="C3">
-        <v>128566</v>
+        <v>140648</v>
       </c>
       <c r="D3">
-        <v>17613</v>
+        <v>19152</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E12" si="0">AVERAGE(F3:O3)</f>
-        <v>20775.5</v>
+        <f>AVERAGE(F3:L3)</f>
+        <v>19546</v>
       </c>
       <c r="F3">
-        <v>11349</v>
+        <v>27991</v>
       </c>
       <c r="G3">
         <v>23907</v>
       </c>
       <c r="H3">
-        <v>24174</v>
+        <v>9867</v>
       </c>
       <c r="I3">
         <v>23672</v>
+      </c>
+      <c r="J3">
+        <v>12293</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3524,7 +3799,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>402612</v>
+        <v>524245</v>
       </c>
       <c r="C4">
         <v>46394</v>
@@ -3533,17 +3808,23 @@
         <v>8433</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
-        <v>33400.666666666664</v>
+        <f>AVERAGE(F4:L4)</f>
+        <v>32405</v>
       </c>
       <c r="F4">
-        <v>35365</v>
+        <v>33102</v>
       </c>
       <c r="G4">
-        <v>33102</v>
+        <v>31735</v>
       </c>
       <c r="H4">
-        <v>31735</v>
+        <v>32633</v>
+      </c>
+      <c r="I4">
+        <v>22780</v>
+      </c>
+      <c r="J4">
+        <v>41775</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -3551,23 +3832,23 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>582257</v>
+        <v>910488</v>
       </c>
       <c r="C5">
-        <v>128566</v>
+        <v>140648</v>
       </c>
       <c r="D5">
-        <v>17613</v>
+        <v>19152</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
-        <v>47291.75</v>
+        <f>AVERAGE(F5:L5)</f>
+        <v>48061.2</v>
       </c>
       <c r="F5">
-        <v>50020</v>
+        <v>58326</v>
       </c>
       <c r="G5">
-        <v>48517</v>
+        <v>32905</v>
       </c>
       <c r="H5">
         <v>45979</v>
@@ -3575,188 +3856,389 @@
       <c r="I5">
         <v>44651</v>
       </c>
+      <c r="J5">
+        <v>58445</v>
+      </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="E6" t="e">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>172920</v>
+      </c>
+      <c r="C6">
+        <v>7931</v>
+      </c>
+      <c r="D6">
+        <v>1742</v>
+      </c>
+      <c r="E6">
+        <f>AVERAGE(F6:L6)</f>
+        <v>4159.3999999999996</v>
+      </c>
+      <c r="F6">
+        <v>4148</v>
+      </c>
+      <c r="G6">
+        <v>4064</v>
+      </c>
+      <c r="H6">
+        <v>4295</v>
+      </c>
+      <c r="I6">
+        <v>4217</v>
+      </c>
+      <c r="J6">
+        <v>4073</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="E7">
+        <f t="shared" ref="E7:E18" si="0">AVERAGE(F7:L7)</f>
+        <v>8399.5</v>
+      </c>
+      <c r="F7">
+        <v>8882</v>
+      </c>
+      <c r="G7">
+        <v>7917</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="E8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>1958</v>
-      </c>
-      <c r="C7">
-        <v>246</v>
-      </c>
-      <c r="D7">
-        <v>41</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>153.5</v>
-      </c>
-      <c r="F7">
-        <v>167</v>
-      </c>
-      <c r="G7">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>44378</v>
-      </c>
-      <c r="C8">
-        <v>5613</v>
-      </c>
-      <c r="D8">
-        <v>618</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>1927.3333333333333</v>
-      </c>
-      <c r="F8">
-        <v>2163</v>
-      </c>
-      <c r="G8">
-        <v>1966</v>
-      </c>
-      <c r="H8">
-        <v>1653</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B9">
-        <v>26478</v>
+        <v>2951</v>
       </c>
       <c r="C9">
-        <v>2657</v>
+        <v>246</v>
       </c>
       <c r="D9">
-        <v>517</v>
+        <v>41</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>1934.8</v>
+        <v>133.80000000000001</v>
       </c>
       <c r="F9">
-        <v>5658</v>
+        <v>129</v>
       </c>
       <c r="G9">
-        <v>1994</v>
+        <v>124</v>
       </c>
       <c r="H9">
-        <v>547</v>
+        <v>128</v>
       </c>
       <c r="I9">
-        <v>891</v>
+        <v>136</v>
       </c>
       <c r="J9">
-        <v>584</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B10">
-        <v>6413</v>
+        <v>60409</v>
       </c>
       <c r="C10">
-        <v>542</v>
+        <v>5613</v>
       </c>
       <c r="D10">
-        <v>143</v>
+        <v>618</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>223.2</v>
+        <v>753.2</v>
       </c>
       <c r="F10">
-        <v>242</v>
+        <v>867</v>
       </c>
       <c r="G10">
-        <v>273</v>
+        <v>742</v>
       </c>
       <c r="H10">
-        <v>214</v>
+        <v>712</v>
       </c>
       <c r="I10">
-        <v>212</v>
+        <v>765</v>
       </c>
       <c r="J10">
-        <v>175</v>
+        <v>680</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B11">
-        <v>101885</v>
+        <v>33355</v>
       </c>
       <c r="C11">
-        <v>7931</v>
+        <v>2657</v>
       </c>
       <c r="D11">
-        <v>1742</v>
+        <v>517</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>3548.6</v>
+        <v>587.20000000000005</v>
       </c>
       <c r="F11">
-        <v>2828</v>
+        <v>599</v>
       </c>
       <c r="G11">
-        <v>3080</v>
+        <v>611</v>
       </c>
       <c r="H11">
-        <v>4305</v>
+        <v>644</v>
       </c>
       <c r="I11">
-        <v>3953</v>
+        <v>574</v>
       </c>
       <c r="J11">
-        <v>3577</v>
+        <v>508</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B12">
-        <v>61878</v>
+        <v>14295</v>
       </c>
       <c r="C12">
-        <v>4270</v>
+        <v>542</v>
       </c>
       <c r="D12">
-        <v>579</v>
+        <v>143</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>1639.3333333333333</v>
+        <v>255</v>
       </c>
       <c r="F12">
-        <v>1896</v>
+        <v>311</v>
       </c>
       <c r="G12">
-        <v>1511</v>
+        <v>170</v>
       </c>
       <c r="H12">
-        <v>1511</v>
+        <v>218</v>
+      </c>
+      <c r="I12">
+        <v>321</v>
+      </c>
+      <c r="J12">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>87380</v>
+      </c>
+      <c r="C13">
+        <v>4270</v>
+      </c>
+      <c r="D13">
+        <v>579</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>872</v>
+      </c>
+      <c r="F13">
+        <v>847</v>
+      </c>
+      <c r="G13">
+        <v>892</v>
+      </c>
+      <c r="H13">
+        <v>905</v>
+      </c>
+      <c r="I13">
+        <v>854</v>
+      </c>
+      <c r="J13">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>29340</v>
+      </c>
+      <c r="C14">
+        <v>1894</v>
+      </c>
+      <c r="D14">
+        <v>290</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>466.8</v>
+      </c>
+      <c r="F14">
+        <v>431</v>
+      </c>
+      <c r="G14">
+        <v>478</v>
+      </c>
+      <c r="H14">
+        <v>463</v>
+      </c>
+      <c r="I14">
+        <v>462</v>
+      </c>
+      <c r="J14">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>18653</v>
+      </c>
+      <c r="C15">
+        <v>914</v>
+      </c>
+      <c r="D15">
+        <v>186</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>248.4</v>
+      </c>
+      <c r="F15">
+        <v>219</v>
+      </c>
+      <c r="G15">
+        <v>277</v>
+      </c>
+      <c r="H15">
+        <v>288</v>
+      </c>
+      <c r="I15">
+        <v>242</v>
+      </c>
+      <c r="J15">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>7468</v>
+      </c>
+      <c r="C16">
+        <v>801</v>
+      </c>
+      <c r="D16">
+        <v>186</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>150.19999999999999</v>
+      </c>
+      <c r="F16">
+        <v>159</v>
+      </c>
+      <c r="G16">
+        <v>140</v>
+      </c>
+      <c r="H16">
+        <v>157</v>
+      </c>
+      <c r="I16">
+        <v>151</v>
+      </c>
+      <c r="J16">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>43551</v>
+      </c>
+      <c r="C17">
+        <v>3331</v>
+      </c>
+      <c r="D17">
+        <v>459</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>591.79999999999995</v>
+      </c>
+      <c r="F17">
+        <v>627</v>
+      </c>
+      <c r="G17">
+        <v>597</v>
+      </c>
+      <c r="H17">
+        <v>562</v>
+      </c>
+      <c r="I17">
+        <v>569</v>
+      </c>
+      <c r="J17">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>103212</v>
+      </c>
+      <c r="C18">
+        <v>9423</v>
+      </c>
+      <c r="D18">
+        <v>1114</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>1504.6</v>
+      </c>
+      <c r="F18">
+        <v>1502</v>
+      </c>
+      <c r="G18">
+        <v>1455</v>
+      </c>
+      <c r="H18">
+        <v>1494</v>
+      </c>
+      <c r="I18">
+        <v>1526</v>
+      </c>
+      <c r="J18">
+        <v>1546</v>
       </c>
     </row>
   </sheetData>
